--- a/Excel/gameUnitModelTable.xlsx
+++ b/Excel/gameUnitModelTable.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC76376E-5084-44EB-BCBA-C1D72AC9064E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -33,11 +34,17 @@
     <t>Models\LODModels\GameUnit\Tank001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>build001</t>
+  </si>
+  <si>
+    <t>Models\MainBuilde</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -74,8 +81,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -85,6 +95,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -133,7 +146,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -166,9 +179,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -201,6 +231,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -376,11 +423,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -404,6 +451,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -411,7 +466,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -424,7 +479,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Excel/gameUnitModelTable.xlsx
+++ b/Excel/gameUnitModelTable.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC76376E-5084-44EB-BCBA-C1D72AC9064E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E6434B-6EDB-4E00-A4C2-24A2E185F2A5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,12 +12,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,6 +39,14 @@
   </si>
   <si>
     <t>Models\MainBuilde</t>
+  </si>
+  <si>
+    <t>vobot001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Models\LODModels\GameUnit\Vobot001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -424,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -457,6 +465,14 @@
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
